--- a/data/pca/factorExposure/factorExposure_2011-05-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +741,60 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.005504572043128745</v>
+        <v>0.01292832832947967</v>
       </c>
       <c r="C2">
-        <v>-0.005284224798344685</v>
+        <v>-0.003574899773866312</v>
       </c>
       <c r="D2">
-        <v>0.04929594890050873</v>
+        <v>-0.02781579493658434</v>
       </c>
       <c r="E2">
-        <v>-0.005333786701857671</v>
+        <v>-0.01594193284268743</v>
       </c>
       <c r="F2">
-        <v>0.01271958553154792</v>
+        <v>0.001120489578150758</v>
       </c>
       <c r="G2">
-        <v>-0.03565759428358198</v>
+        <v>0.01360565568492375</v>
       </c>
       <c r="H2">
-        <v>-0.002507799840625372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02332457821573791</v>
+      </c>
+      <c r="I2">
+        <v>-0.03365258180961718</v>
+      </c>
+      <c r="J2">
+        <v>-0.0255805286277951</v>
+      </c>
+      <c r="K2">
+        <v>0.03038388838655095</v>
+      </c>
+      <c r="L2">
+        <v>0.02293663488616239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +817,60 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.08863431879497739</v>
+        <v>0.1113247886951773</v>
       </c>
       <c r="C4">
-        <v>0.05064275330380943</v>
+        <v>0.07140087263835139</v>
       </c>
       <c r="D4">
-        <v>0.03041361985803291</v>
+        <v>-0.0256017424732251</v>
       </c>
       <c r="E4">
-        <v>0.04041984318923864</v>
+        <v>-0.02153168552461371</v>
       </c>
       <c r="F4">
-        <v>0.03605566047199594</v>
+        <v>0.1555961819997449</v>
       </c>
       <c r="G4">
-        <v>-0.02514435444986291</v>
+        <v>-0.01052340068434987</v>
       </c>
       <c r="H4">
-        <v>-0.008919354679489037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01287984530802263</v>
+      </c>
+      <c r="I4">
+        <v>0.01693815017831413</v>
+      </c>
+      <c r="J4">
+        <v>0.02979891134118035</v>
+      </c>
+      <c r="K4">
+        <v>-0.09706425490723118</v>
+      </c>
+      <c r="L4">
+        <v>0.02718778822315122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +893,440 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1314746892550347</v>
+        <v>0.1342815991280269</v>
       </c>
       <c r="C6">
-        <v>0.03355221748431368</v>
+        <v>0.05405297112971712</v>
       </c>
       <c r="D6">
-        <v>0.05413340510939479</v>
+        <v>-0.003396672221568191</v>
       </c>
       <c r="E6">
-        <v>0.06380436515811266</v>
+        <v>-0.007674385286829897</v>
       </c>
       <c r="F6">
-        <v>-0.1090312763722584</v>
+        <v>-0.01076239681150959</v>
       </c>
       <c r="G6">
-        <v>0.101715758842557</v>
+        <v>-0.07558925288767621</v>
       </c>
       <c r="H6">
-        <v>0.09973750923086827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.06325197913414603</v>
+      </c>
+      <c r="I6">
+        <v>0.2593497106014592</v>
+      </c>
+      <c r="J6">
+        <v>0.3345103531957767</v>
+      </c>
+      <c r="K6">
+        <v>0.06818596639888297</v>
+      </c>
+      <c r="L6">
+        <v>0.2003720624328883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.08154485124407154</v>
+        <v>0.0737702680549927</v>
       </c>
       <c r="C7">
-        <v>0.0460079474262269</v>
+        <v>0.06219730699766549</v>
       </c>
       <c r="D7">
-        <v>0.04098194160664672</v>
+        <v>-0.03034998310425959</v>
       </c>
       <c r="E7">
-        <v>0.04104905127263962</v>
+        <v>-0.01773516482298004</v>
       </c>
       <c r="F7">
-        <v>-0.03334335784205859</v>
+        <v>0.0326066102556735</v>
       </c>
       <c r="G7">
-        <v>-0.003215719375542143</v>
+        <v>-0.007922994509491211</v>
       </c>
       <c r="H7">
-        <v>0.02009690270847253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01372209603365347</v>
+      </c>
+      <c r="I7">
+        <v>0.01357855900461567</v>
+      </c>
+      <c r="J7">
+        <v>-0.04235068125098301</v>
+      </c>
+      <c r="K7">
+        <v>-0.1107439787629856</v>
+      </c>
+      <c r="L7">
+        <v>-0.02836512390125178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03899512296910391</v>
+        <v>0.04389930305394554</v>
       </c>
       <c r="C8">
-        <v>0.004274229173425359</v>
+        <v>0.01742721131348717</v>
       </c>
       <c r="D8">
-        <v>0.05683363218928077</v>
+        <v>-0.007690837631693829</v>
       </c>
       <c r="E8">
-        <v>0.06160378075697451</v>
+        <v>-0.01987418541322156</v>
       </c>
       <c r="F8">
-        <v>0.04637049889620037</v>
+        <v>0.1395058435164074</v>
       </c>
       <c r="G8">
-        <v>-0.08357547039674858</v>
+        <v>0.01541653394689172</v>
       </c>
       <c r="H8">
-        <v>0.09216192789339535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.05143473194958486</v>
+      </c>
+      <c r="I8">
+        <v>0.07082665086709279</v>
+      </c>
+      <c r="J8">
+        <v>0.004759228497740405</v>
+      </c>
+      <c r="K8">
+        <v>-0.08100615309354284</v>
+      </c>
+      <c r="L8">
+        <v>0.06234841695148673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07976938920601194</v>
+        <v>0.08596744247579548</v>
       </c>
       <c r="C9">
-        <v>0.04696780252943248</v>
+        <v>0.06327553991513135</v>
       </c>
       <c r="D9">
-        <v>0.0320235246550724</v>
+        <v>-0.02513239626672567</v>
       </c>
       <c r="E9">
-        <v>0.02937973368602677</v>
+        <v>-0.003570356577416146</v>
       </c>
       <c r="F9">
-        <v>0.02010698717535565</v>
+        <v>0.1374130264112648</v>
       </c>
       <c r="G9">
-        <v>-0.03424968068093743</v>
+        <v>-0.007544098647408127</v>
       </c>
       <c r="H9">
-        <v>0.03571217269550097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.008403722968405497</v>
+      </c>
+      <c r="I9">
+        <v>0.01669629121728691</v>
+      </c>
+      <c r="J9">
+        <v>0.007102879437377133</v>
+      </c>
+      <c r="K9">
+        <v>-0.0654505468907043</v>
+      </c>
+      <c r="L9">
+        <v>0.03258181739256985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04302025407813195</v>
+        <v>0.1017651463788583</v>
       </c>
       <c r="C10">
-        <v>-0.1423000675576293</v>
+        <v>-0.1657340947245771</v>
       </c>
       <c r="D10">
-        <v>0.08051409799103178</v>
+        <v>-0.05146211446339333</v>
       </c>
       <c r="E10">
-        <v>0.0304022608645424</v>
+        <v>-0.02797810220915771</v>
       </c>
       <c r="F10">
-        <v>-0.04314712081148252</v>
+        <v>-0.01193598298065714</v>
       </c>
       <c r="G10">
-        <v>0.0003073028727435369</v>
+        <v>-0.01488988561848693</v>
       </c>
       <c r="H10">
-        <v>0.004085679994131397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.03532422571666709</v>
+      </c>
+      <c r="I10">
+        <v>0.01068734532728197</v>
+      </c>
+      <c r="J10">
+        <v>0.01995601015495389</v>
+      </c>
+      <c r="K10">
+        <v>0.01513561788462691</v>
+      </c>
+      <c r="L10">
+        <v>-0.05082110532223379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.06958302588128823</v>
+        <v>0.07259542860593016</v>
       </c>
       <c r="C11">
-        <v>0.06639781127060448</v>
+        <v>0.07063354948017454</v>
       </c>
       <c r="D11">
-        <v>0.005853404138447047</v>
+        <v>-0.007734967523322937</v>
       </c>
       <c r="E11">
-        <v>-0.00811612620923669</v>
+        <v>0.02220051974855165</v>
       </c>
       <c r="F11">
-        <v>0.004545377869708881</v>
+        <v>0.1334586864985547</v>
       </c>
       <c r="G11">
-        <v>-0.1210297571919569</v>
+        <v>0.0148173421004421</v>
       </c>
       <c r="H11">
-        <v>0.04537191242073969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.05904010446143147</v>
+      </c>
+      <c r="I11">
+        <v>-0.03602096224010543</v>
+      </c>
+      <c r="J11">
+        <v>-0.08621168625642735</v>
+      </c>
+      <c r="K11">
+        <v>0.02712031992106762</v>
+      </c>
+      <c r="L11">
+        <v>0.03020563519749547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06337905223106055</v>
+        <v>0.06842188673961014</v>
       </c>
       <c r="C12">
-        <v>0.03743808235390842</v>
+        <v>0.06479621799274782</v>
       </c>
       <c r="D12">
-        <v>-0.006568902442740649</v>
+        <v>-0.01415391780069622</v>
       </c>
       <c r="E12">
-        <v>0.03622875243692507</v>
+        <v>0.02102685832567537</v>
       </c>
       <c r="F12">
-        <v>0.002867814282365786</v>
+        <v>0.1397600783300067</v>
       </c>
       <c r="G12">
-        <v>-0.1009938695440207</v>
+        <v>0.02468981601656971</v>
       </c>
       <c r="H12">
-        <v>0.07136544212490713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.05840860944313588</v>
+      </c>
+      <c r="I12">
+        <v>0.009012092529534763</v>
+      </c>
+      <c r="J12">
+        <v>-0.08798150002632982</v>
+      </c>
+      <c r="K12">
+        <v>0.005220512448094424</v>
+      </c>
+      <c r="L12">
+        <v>0.05897567627232429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.05486140115256734</v>
+        <v>0.04362097673946499</v>
       </c>
       <c r="C13">
-        <v>0.00220092477770367</v>
+        <v>0.03159875104561985</v>
       </c>
       <c r="D13">
-        <v>0.001568290314884919</v>
+        <v>-0.01019878072906221</v>
       </c>
       <c r="E13">
-        <v>0.01171098937647804</v>
+        <v>-0.02110864830890642</v>
       </c>
       <c r="F13">
-        <v>0.04619416212944589</v>
+        <v>0.04745358612327093</v>
       </c>
       <c r="G13">
-        <v>-0.008624484187851288</v>
+        <v>-0.005765424051231005</v>
       </c>
       <c r="H13">
-        <v>0.06892443343470207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01121329593308608</v>
+      </c>
+      <c r="I13">
+        <v>0.0190141083625586</v>
+      </c>
+      <c r="J13">
+        <v>-0.005026948117229432</v>
+      </c>
+      <c r="K13">
+        <v>-0.04605507766052896</v>
+      </c>
+      <c r="L13">
+        <v>-0.02229974545075587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05217793567929731</v>
+        <v>0.03797989420981356</v>
       </c>
       <c r="C14">
-        <v>0.008912866043453867</v>
+        <v>0.02320756403031642</v>
       </c>
       <c r="D14">
-        <v>0.01671857847642201</v>
+        <v>-0.01014706814931095</v>
       </c>
       <c r="E14">
-        <v>0.03281078526745312</v>
+        <v>0.01173151269198174</v>
       </c>
       <c r="F14">
-        <v>0.002354028364584838</v>
+        <v>0.06302479985496037</v>
       </c>
       <c r="G14">
-        <v>-0.01265263603175435</v>
+        <v>0.004848890507097716</v>
       </c>
       <c r="H14">
-        <v>0.0956510009734913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02905119348020816</v>
+      </c>
+      <c r="I14">
+        <v>0.007094063112782057</v>
+      </c>
+      <c r="J14">
+        <v>0.03416126684514599</v>
+      </c>
+      <c r="K14">
+        <v>-0.1046329489896671</v>
+      </c>
+      <c r="L14">
+        <v>0.02455935229514509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03618465752439613</v>
+        <v>0.02470428506919592</v>
       </c>
       <c r="C15">
-        <v>-0.007810841814792343</v>
+        <v>0.01534532565922973</v>
       </c>
       <c r="D15">
-        <v>0.003924805895155517</v>
+        <v>0.005927715617099003</v>
       </c>
       <c r="E15">
-        <v>0.01673212039212026</v>
+        <v>-0.04893820791652445</v>
       </c>
       <c r="F15">
-        <v>0.01702044755987179</v>
+        <v>0.007587652215272709</v>
       </c>
       <c r="G15">
-        <v>-0.0004450801870471005</v>
+        <v>-0.03509684783154431</v>
       </c>
       <c r="H15">
-        <v>0.01981937783311291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.000418920667848348</v>
+      </c>
+      <c r="I15">
+        <v>-0.002077086265665216</v>
+      </c>
+      <c r="J15">
+        <v>0.05119046501854592</v>
+      </c>
+      <c r="K15">
+        <v>-0.06466239750043541</v>
+      </c>
+      <c r="L15">
+        <v>-0.02212972764434895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.07051662380556917</v>
+        <v>0.07792798231710904</v>
       </c>
       <c r="C16">
-        <v>0.07312055473581919</v>
+        <v>0.07550765954226758</v>
       </c>
       <c r="D16">
-        <v>0.01555010916570471</v>
+        <v>-0.00441323457275237</v>
       </c>
       <c r="E16">
-        <v>0.02686817664567696</v>
+        <v>0.01649252515537223</v>
       </c>
       <c r="F16">
-        <v>0.03619577182615501</v>
+        <v>0.1288374850948435</v>
       </c>
       <c r="G16">
-        <v>-0.07899132198206588</v>
+        <v>0.02395205881730912</v>
       </c>
       <c r="H16">
-        <v>0.05218354989590992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.05233029669871305</v>
+      </c>
+      <c r="I16">
+        <v>-0.03231585927163296</v>
+      </c>
+      <c r="J16">
+        <v>-0.09871375979833874</v>
+      </c>
+      <c r="K16">
+        <v>-0.002161758484735853</v>
+      </c>
+      <c r="L16">
+        <v>0.05182249419397112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1349,22 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1387,22 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1425,288 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.05048463735195455</v>
+        <v>0.04322912910058154</v>
       </c>
       <c r="C20">
-        <v>0.0343677678392792</v>
+        <v>0.03382412710823769</v>
       </c>
       <c r="D20">
-        <v>0.007434334037216698</v>
+        <v>-0.01274115420791596</v>
       </c>
       <c r="E20">
-        <v>0.01326718193705232</v>
+        <v>-0.02226216069437192</v>
       </c>
       <c r="F20">
-        <v>0.01136666287777362</v>
+        <v>0.06205749567397904</v>
       </c>
       <c r="G20">
-        <v>-0.03323641101921573</v>
+        <v>0.0147677616980399</v>
       </c>
       <c r="H20">
-        <v>0.04825652457254662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.00578393728936246</v>
+      </c>
+      <c r="I20">
+        <v>0.03667719709901938</v>
+      </c>
+      <c r="J20">
+        <v>0.007744938226907224</v>
+      </c>
+      <c r="K20">
+        <v>-0.07511228318677057</v>
+      </c>
+      <c r="L20">
+        <v>0.007215521614572582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02119825713096118</v>
+        <v>0.02342934551269128</v>
       </c>
       <c r="C21">
-        <v>0.03048718010051023</v>
+        <v>0.02254361737946277</v>
       </c>
       <c r="D21">
-        <v>-0.0100532818194881</v>
+        <v>-0.001418089389045936</v>
       </c>
       <c r="E21">
-        <v>0.0507909632447523</v>
+        <v>-0.004671795257142767</v>
       </c>
       <c r="F21">
-        <v>-0.07950520568908845</v>
+        <v>0.06461677834002051</v>
       </c>
       <c r="G21">
-        <v>0.01162332901989705</v>
+        <v>-0.04444667981157195</v>
       </c>
       <c r="H21">
-        <v>-0.06421693584111812</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.09409897093025196</v>
+      </c>
+      <c r="I21">
+        <v>0.05057283739458544</v>
+      </c>
+      <c r="J21">
+        <v>0.05757608689617891</v>
+      </c>
+      <c r="K21">
+        <v>-0.1015958797788936</v>
+      </c>
+      <c r="L21">
+        <v>-0.08847029195630872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.0269965250684477</v>
+        <v>0.04869602532128753</v>
       </c>
       <c r="C22">
-        <v>0.04502264548845632</v>
+        <v>0.02863669548760989</v>
       </c>
       <c r="D22">
-        <v>-0.04035158843483638</v>
+        <v>0.08948363070832659</v>
       </c>
       <c r="E22">
-        <v>0.5151514023662409</v>
+        <v>-0.6533611487080283</v>
       </c>
       <c r="F22">
-        <v>0.263118920933946</v>
+        <v>-0.06875411164707702</v>
       </c>
       <c r="G22">
-        <v>0.1813753629238336</v>
+        <v>0.1344757281871747</v>
       </c>
       <c r="H22">
-        <v>-0.2608940183282751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.07852994539609762</v>
+      </c>
+      <c r="I22">
+        <v>0.005812205342811751</v>
+      </c>
+      <c r="J22">
+        <v>-0.03244060383915481</v>
+      </c>
+      <c r="K22">
+        <v>0.04388189380128315</v>
+      </c>
+      <c r="L22">
+        <v>-0.001454669958431452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.0268366192289915</v>
+        <v>0.04914962014875138</v>
       </c>
       <c r="C23">
-        <v>0.04473158698806674</v>
+        <v>0.02934670550015052</v>
       </c>
       <c r="D23">
-        <v>-0.0392909873380161</v>
+        <v>0.08976147504851135</v>
       </c>
       <c r="E23">
-        <v>0.5143014405479261</v>
+        <v>-0.6551388871475572</v>
       </c>
       <c r="F23">
-        <v>0.2637727352335889</v>
+        <v>-0.06604361116107431</v>
       </c>
       <c r="G23">
-        <v>0.1822985964218205</v>
+        <v>0.1353140960642205</v>
       </c>
       <c r="H23">
-        <v>-0.2597268546112182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.0755251439201349</v>
+      </c>
+      <c r="I23">
+        <v>0.006773865748100985</v>
+      </c>
+      <c r="J23">
+        <v>-0.03094113766862152</v>
+      </c>
+      <c r="K23">
+        <v>0.0462081849833</v>
+      </c>
+      <c r="L23">
+        <v>0.0007060981197787637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08066007515757195</v>
+        <v>0.08084671139856885</v>
       </c>
       <c r="C24">
-        <v>0.05506854405562104</v>
+        <v>0.06771840080717424</v>
       </c>
       <c r="D24">
-        <v>0.01433603178781795</v>
+        <v>-0.009633114275527653</v>
       </c>
       <c r="E24">
-        <v>0.03656689157883744</v>
+        <v>0.01211891341957859</v>
       </c>
       <c r="F24">
-        <v>0.01368178067789776</v>
+        <v>0.1270734661399342</v>
       </c>
       <c r="G24">
-        <v>-0.08700177081246598</v>
+        <v>0.0239522689250372</v>
       </c>
       <c r="H24">
-        <v>0.05306245277035675</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.06957189549307669</v>
+      </c>
+      <c r="I24">
+        <v>-0.04674339282024548</v>
+      </c>
+      <c r="J24">
+        <v>-0.08769404269946154</v>
+      </c>
+      <c r="K24">
+        <v>0.02910390478720092</v>
+      </c>
+      <c r="L24">
+        <v>0.05274085112427791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07166749604127674</v>
+        <v>0.07813053271776045</v>
       </c>
       <c r="C25">
-        <v>0.02631516801175407</v>
+        <v>0.05168639507121765</v>
       </c>
       <c r="D25">
-        <v>0.01858883348550852</v>
+        <v>-0.01963055772596086</v>
       </c>
       <c r="E25">
-        <v>0.02971713339850097</v>
+        <v>0.02375257133777749</v>
       </c>
       <c r="F25">
-        <v>0.004636963949854053</v>
+        <v>0.1279948009779175</v>
       </c>
       <c r="G25">
-        <v>-0.08521183636441981</v>
+        <v>0.02936028147624753</v>
       </c>
       <c r="H25">
-        <v>0.05807051481813632</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.04611006909450593</v>
+      </c>
+      <c r="I25">
+        <v>-0.02520787026583613</v>
+      </c>
+      <c r="J25">
+        <v>-0.08500634423520163</v>
+      </c>
+      <c r="K25">
+        <v>0.01958266100893607</v>
+      </c>
+      <c r="L25">
+        <v>0.07117327846288014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05274804901566572</v>
+        <v>0.0440062937971435</v>
       </c>
       <c r="C26">
-        <v>0.03579334911074337</v>
+        <v>0.01305617080912565</v>
       </c>
       <c r="D26">
-        <v>0.0300678046892449</v>
+        <v>-0.002260352325316222</v>
       </c>
       <c r="E26">
-        <v>0.004623315907051695</v>
+        <v>-0.01290061338931974</v>
       </c>
       <c r="F26">
-        <v>0.0191610475442981</v>
+        <v>0.04522803194204844</v>
       </c>
       <c r="G26">
-        <v>0.003326433961366086</v>
+        <v>0.03203041895806124</v>
       </c>
       <c r="H26">
-        <v>0.06193722990983381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.003926209269282438</v>
+      </c>
+      <c r="I26">
+        <v>-0.007845812068107059</v>
+      </c>
+      <c r="J26">
+        <v>0.05011857716491205</v>
+      </c>
+      <c r="K26">
+        <v>-0.1094636134727016</v>
+      </c>
+      <c r="L26">
+        <v>-0.04409673855033223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1729,364 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.0868322387532921</v>
+        <v>0.1397170427721798</v>
       </c>
       <c r="C28">
-        <v>-0.2949189407248355</v>
+        <v>-0.2898067891834575</v>
       </c>
       <c r="D28">
-        <v>0.07165462601111015</v>
+        <v>0.007821482024058088</v>
       </c>
       <c r="E28">
-        <v>0.00430068078165797</v>
+        <v>0.004631693890002136</v>
       </c>
       <c r="F28">
-        <v>-0.03437663466705319</v>
+        <v>0.01605169420012859</v>
       </c>
       <c r="G28">
-        <v>0.008302916316223322</v>
+        <v>-0.00707195301896515</v>
       </c>
       <c r="H28">
-        <v>-0.06131279762547617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01449372235159357</v>
+      </c>
+      <c r="I28">
+        <v>0.0176275472339662</v>
+      </c>
+      <c r="J28">
+        <v>-0.01531023326862696</v>
+      </c>
+      <c r="K28">
+        <v>-0.001694314665325176</v>
+      </c>
+      <c r="L28">
+        <v>-0.0173864316744141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05197218829620507</v>
+        <v>0.0385088536717919</v>
       </c>
       <c r="C29">
-        <v>0.002728384624062192</v>
+        <v>0.02183517414886302</v>
       </c>
       <c r="D29">
-        <v>0.005887646416504198</v>
+        <v>-0.01998082669089141</v>
       </c>
       <c r="E29">
-        <v>0.03778353690530244</v>
+        <v>0.0008415007903834514</v>
       </c>
       <c r="F29">
-        <v>0.02739519462952929</v>
+        <v>0.06295237708226244</v>
       </c>
       <c r="G29">
-        <v>-0.002808857730273616</v>
+        <v>0.02960813046109808</v>
       </c>
       <c r="H29">
-        <v>0.03373266642051385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.009912357582731167</v>
+      </c>
+      <c r="I29">
+        <v>0.01410530747876343</v>
+      </c>
+      <c r="J29">
+        <v>0.03243857616954499</v>
+      </c>
+      <c r="K29">
+        <v>-0.1017860699884831</v>
+      </c>
+      <c r="L29">
+        <v>0.01107575237417795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1184572605709056</v>
+        <v>0.1027322501025</v>
       </c>
       <c r="C30">
-        <v>0.02596497319952058</v>
+        <v>0.05580784401796515</v>
       </c>
       <c r="D30">
-        <v>0.04996700442072868</v>
+        <v>0.02302381746618791</v>
       </c>
       <c r="E30">
-        <v>0.1023145394403156</v>
+        <v>0.01553492154123035</v>
       </c>
       <c r="F30">
-        <v>-0.03897545509044241</v>
+        <v>0.2031656956689831</v>
       </c>
       <c r="G30">
-        <v>-0.1908668682153799</v>
+        <v>0.1244482564468854</v>
       </c>
       <c r="H30">
-        <v>0.02576552467348971</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1861539762716174</v>
+      </c>
+      <c r="I30">
+        <v>0.2063995863372793</v>
+      </c>
+      <c r="J30">
+        <v>-0.0408272098413365</v>
+      </c>
+      <c r="K30">
+        <v>-0.04919833359017069</v>
+      </c>
+      <c r="L30">
+        <v>0.08133793364974343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05214301327619284</v>
+        <v>0.03948745348253311</v>
       </c>
       <c r="C31">
-        <v>0.01962832496194673</v>
+        <v>0.04428413404803043</v>
       </c>
       <c r="D31">
-        <v>-0.01170840061613644</v>
+        <v>-0.00423514691795483</v>
       </c>
       <c r="E31">
-        <v>0.002130755538535352</v>
+        <v>-0.00503883724876434</v>
       </c>
       <c r="F31">
-        <v>0.02580840289178854</v>
+        <v>0.02390768501190122</v>
       </c>
       <c r="G31">
-        <v>0.03022801818623815</v>
+        <v>0.01651284205013128</v>
       </c>
       <c r="H31">
-        <v>0.03937143581918008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03643271013961078</v>
+      </c>
+      <c r="I31">
+        <v>-0.02389898692158605</v>
+      </c>
+      <c r="J31">
+        <v>-0.0001772015015881966</v>
+      </c>
+      <c r="K31">
+        <v>-0.03550085136852767</v>
+      </c>
+      <c r="L31">
+        <v>0.03419545564895039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03051060831754772</v>
+        <v>0.04728858557637332</v>
       </c>
       <c r="C32">
-        <v>-0.01470264977504943</v>
+        <v>0.003422420507170725</v>
       </c>
       <c r="D32">
-        <v>0.000362995137895402</v>
+        <v>0.02991227741254032</v>
       </c>
       <c r="E32">
-        <v>0.0804698842191308</v>
+        <v>0.02298744589484046</v>
       </c>
       <c r="F32">
-        <v>0.1050849430274485</v>
+        <v>0.06613474615035554</v>
       </c>
       <c r="G32">
-        <v>-0.05041217032327611</v>
+        <v>-0.00888803328024761</v>
       </c>
       <c r="H32">
-        <v>0.01303564405111989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.009362923389256714</v>
+      </c>
+      <c r="I32">
+        <v>-0.02970547630681626</v>
+      </c>
+      <c r="J32">
+        <v>-0.00623916008927403</v>
+      </c>
+      <c r="K32">
+        <v>-0.07713119082735163</v>
+      </c>
+      <c r="L32">
+        <v>0.01140852775165165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1133730814391169</v>
+        <v>0.09682971558247649</v>
       </c>
       <c r="C33">
-        <v>0.02957044684589648</v>
+        <v>0.05972893714834947</v>
       </c>
       <c r="D33">
-        <v>-0.002339184408978371</v>
+        <v>-0.0005870126760115091</v>
       </c>
       <c r="E33">
-        <v>0.01460453501629433</v>
+        <v>0.02136752219599683</v>
       </c>
       <c r="F33">
-        <v>0.06395311917079421</v>
+        <v>0.08427526644176901</v>
       </c>
       <c r="G33">
-        <v>-0.03760343106253453</v>
+        <v>0.006528370843998044</v>
       </c>
       <c r="H33">
-        <v>0.07095483962935677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.005722942224205466</v>
+      </c>
+      <c r="I33">
+        <v>-0.0100614540375229</v>
+      </c>
+      <c r="J33">
+        <v>0.008279206440035434</v>
+      </c>
+      <c r="K33">
+        <v>-0.03279715773397677</v>
+      </c>
+      <c r="L33">
+        <v>0.02131735796379879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05834990058474628</v>
+        <v>0.06476708480540569</v>
       </c>
       <c r="C34">
-        <v>0.05791062211486232</v>
+        <v>0.0560789356128347</v>
       </c>
       <c r="D34">
-        <v>0.001330818306528577</v>
+        <v>-0.00818243047562415</v>
       </c>
       <c r="E34">
-        <v>0.01611723679908058</v>
+        <v>0.02103920869165568</v>
       </c>
       <c r="F34">
-        <v>0.01196575818571071</v>
+        <v>0.1169683898061894</v>
       </c>
       <c r="G34">
-        <v>-0.06447205613894456</v>
+        <v>0.01677349679232119</v>
       </c>
       <c r="H34">
-        <v>0.04660306841305168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.03653720400155226</v>
+      </c>
+      <c r="I34">
+        <v>-0.02913750972497275</v>
+      </c>
+      <c r="J34">
+        <v>-0.08384980681965636</v>
+      </c>
+      <c r="K34">
+        <v>-0.03335201051818414</v>
+      </c>
+      <c r="L34">
+        <v>0.04259649706547451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04584716483610887</v>
+        <v>0.02307080388121381</v>
       </c>
       <c r="C35">
-        <v>0.02241168998958321</v>
+        <v>0.02316568110271777</v>
       </c>
       <c r="D35">
-        <v>-0.008803313484774877</v>
+        <v>-0.004604156345554345</v>
       </c>
       <c r="E35">
-        <v>0.01450426100695202</v>
+        <v>0.004319564206859553</v>
       </c>
       <c r="F35">
-        <v>-0.02345468302334064</v>
+        <v>0.03189915380707894</v>
       </c>
       <c r="G35">
-        <v>-0.02020764834783707</v>
+        <v>0.01952717237493326</v>
       </c>
       <c r="H35">
-        <v>0.06587733663140996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.02352345389064318</v>
+      </c>
+      <c r="I35">
+        <v>0.01875057869156912</v>
+      </c>
+      <c r="J35">
+        <v>-0.03199492469461306</v>
+      </c>
+      <c r="K35">
+        <v>-0.08076370036356087</v>
+      </c>
+      <c r="L35">
+        <v>0.006130672876102378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03542043434737947</v>
+        <v>0.02699167615765514</v>
       </c>
       <c r="C36">
-        <v>0.00848360011867773</v>
+        <v>0.01442750623244571</v>
       </c>
       <c r="D36">
-        <v>0.01811486806147597</v>
+        <v>-0.001061239985624976</v>
       </c>
       <c r="E36">
-        <v>0.03037051515169564</v>
+        <v>-0.01303749097745054</v>
       </c>
       <c r="F36">
-        <v>0.01084262334454738</v>
+        <v>0.06670487319168848</v>
       </c>
       <c r="G36">
-        <v>-0.01745179084215624</v>
+        <v>0.01725568387823259</v>
       </c>
       <c r="H36">
-        <v>0.07099021527389558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.0113920489269805</v>
+      </c>
+      <c r="I36">
+        <v>0.01155765169056613</v>
+      </c>
+      <c r="J36">
+        <v>0.03716838716192425</v>
+      </c>
+      <c r="K36">
+        <v>-0.03469446767927629</v>
+      </c>
+      <c r="L36">
+        <v>0.01470265366571242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2109,174 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.05006878376461926</v>
+        <v>0.02591186787145561</v>
       </c>
       <c r="C38">
-        <v>0.02874085446583888</v>
+        <v>0.03894411213561179</v>
       </c>
       <c r="D38">
-        <v>-0.003812743361454819</v>
+        <v>-0.01157026389510738</v>
       </c>
       <c r="E38">
-        <v>0.02276684985920151</v>
+        <v>-0.01929006751399709</v>
       </c>
       <c r="F38">
-        <v>0.01716471530423587</v>
+        <v>-0.04952474948562107</v>
       </c>
       <c r="G38">
-        <v>-0.03931856192488075</v>
+        <v>0.02691358177266069</v>
       </c>
       <c r="H38">
-        <v>-0.03312813173760928</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.008734028106699432</v>
+      </c>
+      <c r="I38">
+        <v>0.006029240427337962</v>
+      </c>
+      <c r="J38">
+        <v>0.002577385257835469</v>
+      </c>
+      <c r="K38">
+        <v>-0.04349185428524965</v>
+      </c>
+      <c r="L38">
+        <v>-0.09358160954861969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1036386088005626</v>
+        <v>0.1083964771557713</v>
       </c>
       <c r="C39">
-        <v>0.06520760526786909</v>
+        <v>0.08613438160303916</v>
       </c>
       <c r="D39">
-        <v>-0.005885432961619319</v>
+        <v>-0.007615466875367701</v>
       </c>
       <c r="E39">
-        <v>0.02728942057281505</v>
+        <v>0.08975381317087827</v>
       </c>
       <c r="F39">
-        <v>0.01033225363778059</v>
+        <v>0.1561262607185198</v>
       </c>
       <c r="G39">
-        <v>-0.1226577220998483</v>
+        <v>0.1067879007329684</v>
       </c>
       <c r="H39">
-        <v>0.01448375637288063</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.08195286198933643</v>
+      </c>
+      <c r="I39">
+        <v>0.006954807538593198</v>
+      </c>
+      <c r="J39">
+        <v>-0.2101960499178186</v>
+      </c>
+      <c r="K39">
+        <v>0.04432118607340278</v>
+      </c>
+      <c r="L39">
+        <v>0.07974010880170446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.04731727604415727</v>
+        <v>0.03249579658271849</v>
       </c>
       <c r="C40">
-        <v>0.01923143374476096</v>
+        <v>0.05847157903622707</v>
       </c>
       <c r="D40">
-        <v>-0.04328047635812353</v>
+        <v>-0.00673031877324932</v>
       </c>
       <c r="E40">
-        <v>0.1067557132999305</v>
+        <v>-0.04120647478079564</v>
       </c>
       <c r="F40">
-        <v>0.02227931740123968</v>
+        <v>0.101370159872644</v>
       </c>
       <c r="G40">
-        <v>-0.1458762628293905</v>
+        <v>0.003204978573231428</v>
       </c>
       <c r="H40">
-        <v>0.1129149959622099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.09650704956593549</v>
+      </c>
+      <c r="I40">
+        <v>0.007869577311131361</v>
+      </c>
+      <c r="J40">
+        <v>0.05261349128169227</v>
+      </c>
+      <c r="K40">
+        <v>-0.02800927876287991</v>
+      </c>
+      <c r="L40">
+        <v>-0.1314363580617999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.04646080088292186</v>
+        <v>0.03811071107153349</v>
       </c>
       <c r="C41">
-        <v>0.03807872643279737</v>
+        <v>0.03478758399209808</v>
       </c>
       <c r="D41">
-        <v>-0.0009584563114524781</v>
+        <v>-0.01802691583267127</v>
       </c>
       <c r="E41">
-        <v>-0.007157257368091845</v>
+        <v>0.01530001434876969</v>
       </c>
       <c r="F41">
-        <v>0.01589359913127259</v>
+        <v>0.01833667462725907</v>
       </c>
       <c r="G41">
-        <v>-0.03189818116992776</v>
+        <v>0.02069936466869723</v>
       </c>
       <c r="H41">
-        <v>0.01297090173132906</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.002263764079863935</v>
+      </c>
+      <c r="I41">
+        <v>0.0001922168479394686</v>
+      </c>
+      <c r="J41">
+        <v>-0.02052870210541266</v>
+      </c>
+      <c r="K41">
+        <v>-0.0606170953712367</v>
+      </c>
+      <c r="L41">
+        <v>-0.01552793828969354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2299,98 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.06688748943474421</v>
+        <v>0.05197868482524744</v>
       </c>
       <c r="C43">
-        <v>0.03403737200793856</v>
+        <v>0.03629174363086745</v>
       </c>
       <c r="D43">
-        <v>0.01994056250231387</v>
+        <v>-0.01339783207652086</v>
       </c>
       <c r="E43">
-        <v>0.02535258900532934</v>
+        <v>-0.0150451631795137</v>
       </c>
       <c r="F43">
-        <v>0.01430867510946644</v>
+        <v>0.00825422920800419</v>
       </c>
       <c r="G43">
-        <v>-0.003294290786634918</v>
+        <v>0.04609120375222466</v>
       </c>
       <c r="H43">
-        <v>-0.01094246526970627</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.02092205067798791</v>
+      </c>
+      <c r="I43">
+        <v>0.0226980052038917</v>
+      </c>
+      <c r="J43">
+        <v>-0.04484813807326811</v>
+      </c>
+      <c r="K43">
+        <v>-0.05075506620170536</v>
+      </c>
+      <c r="L43">
+        <v>0.01678767809646719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.0519948792283</v>
+        <v>0.08846562399574441</v>
       </c>
       <c r="C44">
-        <v>0.02369501169607711</v>
+        <v>0.0650701983400372</v>
       </c>
       <c r="D44">
-        <v>0.0805351582506527</v>
+        <v>-0.03046218601447441</v>
       </c>
       <c r="E44">
-        <v>0.05940040659963117</v>
+        <v>-0.08846237579258429</v>
       </c>
       <c r="F44">
-        <v>0.01091985451784476</v>
+        <v>0.1721609029104743</v>
       </c>
       <c r="G44">
-        <v>-0.1176098946126718</v>
+        <v>0.01185944114201033</v>
       </c>
       <c r="H44">
-        <v>0.02924321546809936</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.04835501296182181</v>
+      </c>
+      <c r="I44">
+        <v>-0.0207440478185922</v>
+      </c>
+      <c r="J44">
+        <v>-0.01137071329591969</v>
+      </c>
+      <c r="K44">
+        <v>-0.05621944692217937</v>
+      </c>
+      <c r="L44">
+        <v>-0.06088999398729141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2413,440 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04337904660695755</v>
+        <v>0.03164710927425293</v>
       </c>
       <c r="C46">
-        <v>0.04629443754660751</v>
+        <v>0.02813417918730008</v>
       </c>
       <c r="D46">
-        <v>0.01274127833174333</v>
+        <v>-0.02208490397536513</v>
       </c>
       <c r="E46">
-        <v>0.05708616768195694</v>
+        <v>-0.03878721777012536</v>
       </c>
       <c r="F46">
-        <v>0.02903249080742502</v>
+        <v>0.03812759816288597</v>
       </c>
       <c r="G46">
-        <v>-0.01607880322336565</v>
+        <v>0.018275448733837</v>
       </c>
       <c r="H46">
-        <v>0.04147378293057238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.04022387030110221</v>
+      </c>
+      <c r="I46">
+        <v>-0.02683934766144759</v>
+      </c>
+      <c r="J46">
+        <v>0.03237170797287259</v>
+      </c>
+      <c r="K46">
+        <v>-0.1268930496178572</v>
+      </c>
+      <c r="L46">
+        <v>0.03639584840915938</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04566789263868539</v>
+        <v>0.04161770281849763</v>
       </c>
       <c r="C47">
-        <v>0.01522038774070598</v>
+        <v>0.0255733042758929</v>
       </c>
       <c r="D47">
-        <v>0.004913416431537478</v>
+        <v>-0.005411087908708904</v>
       </c>
       <c r="E47">
-        <v>0.0717019043677645</v>
+        <v>-0.0188853784529755</v>
       </c>
       <c r="F47">
-        <v>0.01668074003935118</v>
+        <v>0.03526819842847352</v>
       </c>
       <c r="G47">
-        <v>0.0208672960787477</v>
+        <v>0.001847266763340319</v>
       </c>
       <c r="H47">
-        <v>0.0287545394018912</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01235507709411542</v>
+      </c>
+      <c r="I47">
+        <v>0.02653610293458392</v>
+      </c>
+      <c r="J47">
+        <v>0.02607915596430664</v>
+      </c>
+      <c r="K47">
+        <v>-0.05072436370723508</v>
+      </c>
+      <c r="L47">
+        <v>-0.01393737383098092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04311531554247962</v>
+        <v>0.04099605690417399</v>
       </c>
       <c r="C48">
-        <v>0.01295683770161188</v>
+        <v>0.01640691324884531</v>
       </c>
       <c r="D48">
-        <v>-0.003118611584778703</v>
+        <v>-0.007978080349405647</v>
       </c>
       <c r="E48">
-        <v>0.0530904738024671</v>
+        <v>-0.009850478558857729</v>
       </c>
       <c r="F48">
-        <v>0.02537743241110658</v>
+        <v>0.07011388077291698</v>
       </c>
       <c r="G48">
-        <v>0.006939972753049912</v>
+        <v>-0.006440378123339535</v>
       </c>
       <c r="H48">
-        <v>0.05315636057310646</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.04192396402985463</v>
+      </c>
+      <c r="I48">
+        <v>0.00918600023496036</v>
+      </c>
+      <c r="J48">
+        <v>0.01737164449201953</v>
+      </c>
+      <c r="K48">
+        <v>-0.0509848899197527</v>
+      </c>
+      <c r="L48">
+        <v>0.03303442451420111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2354752017425387</v>
+        <v>0.2246077913861286</v>
       </c>
       <c r="C49">
-        <v>0.115532340877491</v>
+        <v>0.06638710300619152</v>
       </c>
       <c r="D49">
-        <v>0.04376561695844716</v>
+        <v>-0.08761224641946143</v>
       </c>
       <c r="E49">
-        <v>-0.01954012277291282</v>
+        <v>0.03818755981239488</v>
       </c>
       <c r="F49">
-        <v>-0.1651955678970792</v>
+        <v>-0.2233095369194971</v>
       </c>
       <c r="G49">
-        <v>0.00556868833387406</v>
+        <v>-0.1000705781676999</v>
       </c>
       <c r="H49">
-        <v>-0.1597148687791567</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.202596285158898</v>
+      </c>
+      <c r="I49">
+        <v>-0.02667750306368502</v>
+      </c>
+      <c r="J49">
+        <v>-0.09209069482852475</v>
+      </c>
+      <c r="K49">
+        <v>0.1618506777840885</v>
+      </c>
+      <c r="L49">
+        <v>0.02884367347248258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05691029838956001</v>
+        <v>0.04548766827361991</v>
       </c>
       <c r="C50">
-        <v>0.02709701421103412</v>
+        <v>0.03160690211807712</v>
       </c>
       <c r="D50">
-        <v>-0.00657777218236234</v>
+        <v>-0.002391252080785313</v>
       </c>
       <c r="E50">
-        <v>0.01927323690402389</v>
+        <v>0.0003455956552877852</v>
       </c>
       <c r="F50">
-        <v>0.05640304127301105</v>
+        <v>0.04280464806961966</v>
       </c>
       <c r="G50">
-        <v>0.03474995973653448</v>
+        <v>0.03687700578207637</v>
       </c>
       <c r="H50">
-        <v>0.05256713100314493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02704793517235583</v>
+      </c>
+      <c r="I50">
+        <v>-0.01262103087876489</v>
+      </c>
+      <c r="J50">
+        <v>0.0215455022021239</v>
+      </c>
+      <c r="K50">
+        <v>-0.04918525098479679</v>
+      </c>
+      <c r="L50">
+        <v>0.03498561778018263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.02871160558601845</v>
+        <v>0.02447680272465329</v>
       </c>
       <c r="C51">
-        <v>0.01118992722454616</v>
+        <v>0.001656599725562263</v>
       </c>
       <c r="D51">
-        <v>0.004119185548358401</v>
+        <v>-0.01580164711805779</v>
       </c>
       <c r="E51">
-        <v>-0.006731258109575336</v>
+        <v>-0.001988080669904078</v>
       </c>
       <c r="F51">
-        <v>-0.006691991277017947</v>
+        <v>-0.02169481644672977</v>
       </c>
       <c r="G51">
-        <v>-0.008442009626390346</v>
+        <v>-0.01215346663592028</v>
       </c>
       <c r="H51">
-        <v>-0.03910887694626843</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.005201637823921755</v>
+      </c>
+      <c r="I51">
+        <v>0.009050339834184462</v>
+      </c>
+      <c r="J51">
+        <v>-0.06191359963227414</v>
+      </c>
+      <c r="K51">
+        <v>0.02961566743949933</v>
+      </c>
+      <c r="L51">
+        <v>0.02503575434977647</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.05056888687264171</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.02470420176590975</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.002967745930754477</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.005633902922000644</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.0206010409859895</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.07914291160725244</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.03441002391570055</v>
+      </c>
+      <c r="I52">
+        <v>-0.04219133500046462</v>
+      </c>
+      <c r="J52">
+        <v>0.04204943014781194</v>
+      </c>
+      <c r="K52">
+        <v>0.04431215891538708</v>
+      </c>
+      <c r="L52">
+        <v>0.008583928445827121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1674241848512183</v>
+        <v>0.1633762671043975</v>
       </c>
       <c r="C53">
-        <v>0.0007713833930027507</v>
+        <v>0.04134769354298386</v>
       </c>
       <c r="D53">
-        <v>0.01850838843625426</v>
+        <v>-0.02603302260052665</v>
       </c>
       <c r="E53">
-        <v>-0.1259440217047569</v>
+        <v>0.00481131771198373</v>
       </c>
       <c r="F53">
-        <v>0.2089448465097327</v>
+        <v>-0.07109124320698319</v>
       </c>
       <c r="G53">
-        <v>0.02101119215749361</v>
+        <v>0.1554071804528006</v>
       </c>
       <c r="H53">
-        <v>0.07433722576273513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1946898935628445</v>
+      </c>
+      <c r="I53">
+        <v>-0.1545344193273178</v>
+      </c>
+      <c r="J53">
+        <v>0.08097033413822173</v>
+      </c>
+      <c r="K53">
+        <v>0.03079661966905045</v>
+      </c>
+      <c r="L53">
+        <v>0.005220964797107585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.04860102727600491</v>
+        <v>0.05660308261063806</v>
       </c>
       <c r="C54">
-        <v>0.01319050538885379</v>
+        <v>0.04449611929338588</v>
       </c>
       <c r="D54">
-        <v>0.01963776962973818</v>
+        <v>-0.01256595201921643</v>
       </c>
       <c r="E54">
-        <v>0.05114476388860625</v>
+        <v>-0.01909493960771595</v>
       </c>
       <c r="F54">
-        <v>0.03392377089695925</v>
+        <v>0.1242720066991865</v>
       </c>
       <c r="G54">
-        <v>-0.04334670361975845</v>
+        <v>-0.02130371955569876</v>
       </c>
       <c r="H54">
-        <v>0.08048301079334513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.0282767796984793</v>
+      </c>
+      <c r="I54">
+        <v>0.03874785197966328</v>
+      </c>
+      <c r="J54">
+        <v>0.07066010572630194</v>
+      </c>
+      <c r="K54">
+        <v>-0.1433658018386771</v>
+      </c>
+      <c r="L54">
+        <v>-0.01299513642143723</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09259755134163508</v>
+        <v>0.08925817565499082</v>
       </c>
       <c r="C55">
-        <v>0.007712604074969589</v>
+        <v>0.03821858177246717</v>
       </c>
       <c r="D55">
-        <v>0.02006367538032481</v>
+        <v>-0.0223942227397436</v>
       </c>
       <c r="E55">
-        <v>-0.04713474199068171</v>
+        <v>0.02069368611329988</v>
       </c>
       <c r="F55">
-        <v>0.1767997837069921</v>
+        <v>0.006164706564159331</v>
       </c>
       <c r="G55">
-        <v>0.0197464696615654</v>
+        <v>0.08053964465466304</v>
       </c>
       <c r="H55">
-        <v>0.1065364878750378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1258674797863878</v>
+      </c>
+      <c r="I55">
+        <v>-0.1010397335883391</v>
+      </c>
+      <c r="J55">
+        <v>0.03080911422220219</v>
+      </c>
+      <c r="K55">
+        <v>-0.005952934165955981</v>
+      </c>
+      <c r="L55">
+        <v>0.005900192584077872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1633016412163951</v>
+        <v>0.154999135464574</v>
       </c>
       <c r="C56">
-        <v>0.0009401162844427202</v>
+        <v>0.05945620587518924</v>
       </c>
       <c r="D56">
-        <v>0.01639715686346512</v>
+        <v>-0.04792258312904724</v>
       </c>
       <c r="E56">
-        <v>-0.109075975971294</v>
+        <v>0.01972699873825324</v>
       </c>
       <c r="F56">
-        <v>0.2170639466025403</v>
+        <v>-0.04117520996765419</v>
       </c>
       <c r="G56">
-        <v>0.05785396330784257</v>
+        <v>0.1422418625004891</v>
       </c>
       <c r="H56">
-        <v>0.07854890762868633</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1687270117747495</v>
+      </c>
+      <c r="I56">
+        <v>-0.1513133922258868</v>
+      </c>
+      <c r="J56">
+        <v>0.05088182940853315</v>
+      </c>
+      <c r="K56">
+        <v>0.02963517979167592</v>
+      </c>
+      <c r="L56">
+        <v>-0.02508005321130123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2869,1694 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.02620792450385746</v>
+        <v>0.04171572225007915</v>
       </c>
       <c r="C58">
-        <v>0.04189120192532456</v>
+        <v>0.03288241206167237</v>
       </c>
       <c r="D58">
-        <v>-0.020852516401652</v>
+        <v>0.0123339629066282</v>
       </c>
       <c r="E58">
-        <v>0.4008575143313249</v>
+        <v>-0.0827618779567582</v>
       </c>
       <c r="F58">
-        <v>-0.3530158317721201</v>
+        <v>0.02000892844539698</v>
       </c>
       <c r="G58">
-        <v>0.1428994122632597</v>
+        <v>0.03171412015992627</v>
       </c>
       <c r="H58">
-        <v>0.5034867924666956</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1486856187120077</v>
+      </c>
+      <c r="I58">
+        <v>0.1176813436002906</v>
+      </c>
+      <c r="J58">
+        <v>-0.1499872625198573</v>
+      </c>
+      <c r="K58">
+        <v>-0.1259159763387047</v>
+      </c>
+      <c r="L58">
+        <v>0.3646347686926701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1786837625787829</v>
+        <v>0.2109477951029362</v>
       </c>
       <c r="C59">
-        <v>-0.4077710636441972</v>
+        <v>-0.2981622385753353</v>
       </c>
       <c r="D59">
-        <v>0.08424268309225645</v>
+        <v>-0.01454533692056473</v>
       </c>
       <c r="E59">
-        <v>-0.01984639778329769</v>
+        <v>0.04537986613100398</v>
       </c>
       <c r="F59">
-        <v>0.02966369829660572</v>
+        <v>0.03354627076596039</v>
       </c>
       <c r="G59">
-        <v>-0.06384468558047598</v>
+        <v>-0.03299034463720705</v>
       </c>
       <c r="H59">
-        <v>-0.03459898487973403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1075589719583595</v>
+      </c>
+      <c r="I59">
+        <v>-0.04098901018779357</v>
+      </c>
+      <c r="J59">
+        <v>-0.06174717057328829</v>
+      </c>
+      <c r="K59">
+        <v>0.07362269970482735</v>
+      </c>
+      <c r="L59">
+        <v>-0.08471769259872372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2645716857170674</v>
+        <v>0.2384151180081156</v>
       </c>
       <c r="C60">
-        <v>0.05519378344816118</v>
+        <v>0.1036689065040574</v>
       </c>
       <c r="D60">
-        <v>0.07681543388099628</v>
+        <v>-0.1093587723761024</v>
       </c>
       <c r="E60">
-        <v>-0.01862476274027348</v>
+        <v>0.04190399692185325</v>
       </c>
       <c r="F60">
-        <v>-0.05588807023349743</v>
+        <v>-0.143481684940176</v>
       </c>
       <c r="G60">
-        <v>0.07261528962323785</v>
+        <v>-0.02149584773143139</v>
       </c>
       <c r="H60">
-        <v>-0.161656922780295</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.05290460844571663</v>
+      </c>
+      <c r="I60">
+        <v>0.04396564382085973</v>
+      </c>
+      <c r="J60">
+        <v>0.09361247066741257</v>
+      </c>
+      <c r="K60">
+        <v>0.2391530452526274</v>
+      </c>
+      <c r="L60">
+        <v>0.08410817211751438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09044168744114382</v>
+        <v>0.1023363423560376</v>
       </c>
       <c r="C61">
-        <v>0.03445642439608965</v>
+        <v>0.0537671939596954</v>
       </c>
       <c r="D61">
-        <v>0.00420258178360771</v>
+        <v>-0.02479542393047166</v>
       </c>
       <c r="E61">
-        <v>-0.004686693897359452</v>
+        <v>0.04667264268354097</v>
       </c>
       <c r="F61">
-        <v>0.01454929120897046</v>
+        <v>0.1342368470074532</v>
       </c>
       <c r="G61">
-        <v>-0.0443329684403399</v>
+        <v>0.08561003452359423</v>
       </c>
       <c r="H61">
-        <v>-0.002898032423737855</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.02010531406408598</v>
+      </c>
+      <c r="I61">
+        <v>-0.02009026518920148</v>
+      </c>
+      <c r="J61">
+        <v>-0.1121073188570692</v>
+      </c>
+      <c r="K61">
+        <v>-0.03258467947424209</v>
+      </c>
+      <c r="L61">
+        <v>0.03767394010141228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1499413273298362</v>
+        <v>0.147075012017679</v>
       </c>
       <c r="C62">
-        <v>0.02073137640575519</v>
+        <v>0.05803399794158946</v>
       </c>
       <c r="D62">
-        <v>-0.02424113019408161</v>
+        <v>-0.01979935862245301</v>
       </c>
       <c r="E62">
-        <v>-0.1736026110472718</v>
+        <v>0.02716712598768456</v>
       </c>
       <c r="F62">
-        <v>0.2114659816852981</v>
+        <v>-0.05673111596229029</v>
       </c>
       <c r="G62">
-        <v>-0.003049366045936549</v>
+        <v>0.1163465639811909</v>
       </c>
       <c r="H62">
-        <v>0.09210694900716175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.151255657097314</v>
+      </c>
+      <c r="I62">
+        <v>-0.1757373968418724</v>
+      </c>
+      <c r="J62">
+        <v>0.1091228942278886</v>
+      </c>
+      <c r="K62">
+        <v>-0.002600719213220662</v>
+      </c>
+      <c r="L62">
+        <v>-0.02888034251977509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04125406569034906</v>
+        <v>0.04431648715721313</v>
       </c>
       <c r="C63">
-        <v>0.02462645931932756</v>
+        <v>0.02609642682617402</v>
       </c>
       <c r="D63">
-        <v>-0.006884430801651595</v>
+        <v>0.01492960123238317</v>
       </c>
       <c r="E63">
-        <v>0.006108119592207285</v>
+        <v>0.008197830664400873</v>
       </c>
       <c r="F63">
-        <v>0.0163513519213375</v>
+        <v>0.06753367589112001</v>
       </c>
       <c r="G63">
-        <v>-0.00782141770505005</v>
+        <v>0.00657256870686742</v>
       </c>
       <c r="H63">
-        <v>0.06887825044164177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.009026169020871428</v>
+      </c>
+      <c r="I63">
+        <v>0.008472437985229174</v>
+      </c>
+      <c r="J63">
+        <v>0.00146836121833971</v>
+      </c>
+      <c r="K63">
+        <v>-0.04368821837750297</v>
+      </c>
+      <c r="L63">
+        <v>0.03942466486766617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1071871638968361</v>
+        <v>0.0993557381041191</v>
       </c>
       <c r="C64">
-        <v>0.02073061424720338</v>
+        <v>0.04664188541269829</v>
       </c>
       <c r="D64">
-        <v>0.04176305883275605</v>
+        <v>-0.05243822183816234</v>
       </c>
       <c r="E64">
-        <v>0.04331717201588824</v>
+        <v>-0.01766504183920875</v>
       </c>
       <c r="F64">
-        <v>-0.006275533260937895</v>
+        <v>0.06533612269017657</v>
       </c>
       <c r="G64">
-        <v>-0.0714704419646303</v>
+        <v>0.03277687926609723</v>
       </c>
       <c r="H64">
-        <v>-0.02798903726265566</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06454270281690778</v>
+      </c>
+      <c r="I64">
+        <v>0.06747975779188602</v>
+      </c>
+      <c r="J64">
+        <v>-0.01926227082298003</v>
+      </c>
+      <c r="K64">
+        <v>0.008277910528832561</v>
+      </c>
+      <c r="L64">
+        <v>-0.004287499869125441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1211416477999329</v>
+        <v>0.1240957085094806</v>
       </c>
       <c r="C65">
-        <v>0.03797221369116302</v>
+        <v>0.05173388394044915</v>
       </c>
       <c r="D65">
-        <v>0.03215975093639784</v>
+        <v>0.01388586285002665</v>
       </c>
       <c r="E65">
-        <v>0.08967856057675867</v>
+        <v>0.01358064510623605</v>
       </c>
       <c r="F65">
-        <v>-0.1673053887838007</v>
+        <v>-0.02944605665026126</v>
       </c>
       <c r="G65">
-        <v>0.2246170232841428</v>
+        <v>-0.05857203921817375</v>
       </c>
       <c r="H65">
-        <v>0.3526522505004309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.02162724104556365</v>
+      </c>
+      <c r="I65">
+        <v>0.3293828918489948</v>
+      </c>
+      <c r="J65">
+        <v>0.5132086165878004</v>
+      </c>
+      <c r="K65">
+        <v>0.1140064470614626</v>
+      </c>
+      <c r="L65">
+        <v>0.3531763162635104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1612573785690172</v>
+        <v>0.1377143035464241</v>
       </c>
       <c r="C66">
-        <v>0.08178726860869596</v>
+        <v>0.1147026020238395</v>
       </c>
       <c r="D66">
-        <v>-0.01923491910855695</v>
+        <v>-0.01102426906430333</v>
       </c>
       <c r="E66">
-        <v>-0.01883055270851612</v>
+        <v>0.1053731756492973</v>
       </c>
       <c r="F66">
-        <v>0.01798374185047234</v>
+        <v>0.1554292660959555</v>
       </c>
       <c r="G66">
-        <v>-0.2540197545917516</v>
+        <v>0.1353902912019481</v>
       </c>
       <c r="H66">
-        <v>0.01062877796151395</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.110622507887362</v>
+      </c>
+      <c r="I66">
+        <v>-0.04289044863331485</v>
+      </c>
+      <c r="J66">
+        <v>-0.2032918537604775</v>
+      </c>
+      <c r="K66">
+        <v>0.1085189355806892</v>
+      </c>
+      <c r="L66">
+        <v>0.0349858456841019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.0973103218374005</v>
+        <v>0.07192646632226513</v>
       </c>
       <c r="C67">
-        <v>0.04655465372466017</v>
+        <v>0.04788999533820106</v>
       </c>
       <c r="D67">
-        <v>0.015738081926313</v>
+        <v>-0.009678110829600172</v>
       </c>
       <c r="E67">
-        <v>0.001534083793283785</v>
+        <v>-0.01933448718173634</v>
       </c>
       <c r="F67">
-        <v>0.01457716650150708</v>
+        <v>-0.03812180344261717</v>
       </c>
       <c r="G67">
-        <v>-0.03768552533310251</v>
+        <v>0.01819330587555965</v>
       </c>
       <c r="H67">
-        <v>-0.05847686894096089</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.008626706856001275</v>
+      </c>
+      <c r="I67">
+        <v>0.02565001789653194</v>
+      </c>
+      <c r="J67">
+        <v>-0.04730452935346362</v>
+      </c>
+      <c r="K67">
+        <v>0.01340864334799965</v>
+      </c>
+      <c r="L67">
+        <v>-0.1254386425421042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.06186084295493743</v>
+        <v>0.115245316668669</v>
       </c>
       <c r="C68">
-        <v>-0.2928906882372463</v>
+        <v>-0.2728893224600292</v>
       </c>
       <c r="D68">
-        <v>0.03222502846554746</v>
+        <v>0.02476847119298247</v>
       </c>
       <c r="E68">
-        <v>0.01876122779866325</v>
+        <v>0.009604123075933517</v>
       </c>
       <c r="F68">
-        <v>0.0178448450407308</v>
+        <v>0.04117501838997594</v>
       </c>
       <c r="G68">
-        <v>0.03689948953182819</v>
+        <v>0.01340850478826257</v>
       </c>
       <c r="H68">
-        <v>0.03908406623418804</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01997287115697831</v>
+      </c>
+      <c r="I68">
+        <v>0.01937199459746803</v>
+      </c>
+      <c r="J68">
+        <v>0.03386989395181424</v>
+      </c>
+      <c r="K68">
+        <v>-0.01249695437259388</v>
+      </c>
+      <c r="L68">
+        <v>0.04798670160507689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04279767313152081</v>
+        <v>0.04025661522662661</v>
       </c>
       <c r="C69">
-        <v>0.01996228332876044</v>
+        <v>0.006649750890033232</v>
       </c>
       <c r="D69">
-        <v>0.00622262263774936</v>
+        <v>-0.010725084962504</v>
       </c>
       <c r="E69">
-        <v>0.01026474291706556</v>
+        <v>-0.005319303657690278</v>
       </c>
       <c r="F69">
-        <v>0.02122967448326885</v>
+        <v>0.01407754375752343</v>
       </c>
       <c r="G69">
-        <v>-0.03011191426573612</v>
+        <v>0.03751767064741197</v>
       </c>
       <c r="H69">
-        <v>0.02022584809532869</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02067737940928195</v>
+      </c>
+      <c r="I69">
+        <v>0.01700056036155072</v>
+      </c>
+      <c r="J69">
+        <v>-0.0002173949097169286</v>
+      </c>
+      <c r="K69">
+        <v>-0.02251091162265084</v>
+      </c>
+      <c r="L69">
+        <v>-0.00426816493750367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07535491966051</v>
+        <v>0.05163569207932422</v>
       </c>
       <c r="C70">
-        <v>0.009323747336472444</v>
+        <v>0.01752450708685889</v>
       </c>
       <c r="D70">
-        <v>0.03661192525834057</v>
+        <v>-0.03469144352450734</v>
       </c>
       <c r="E70">
-        <v>0.01087972653330859</v>
+        <v>0.0235687038156565</v>
       </c>
       <c r="F70">
-        <v>-0.08980541780970466</v>
+        <v>0.01196153468155939</v>
       </c>
       <c r="G70">
-        <v>0.04362646563229203</v>
+        <v>-0.01598991946395611</v>
       </c>
       <c r="H70">
-        <v>-0.06223645530831472</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02092982096209038</v>
+      </c>
+      <c r="I70">
+        <v>0.1243341949755013</v>
+      </c>
+      <c r="J70">
+        <v>0.0879245571158454</v>
+      </c>
+      <c r="K70">
+        <v>-0.2950405681074499</v>
+      </c>
+      <c r="L70">
+        <v>-0.1832624005276946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.07195011763025805</v>
+        <v>0.129891507808457</v>
       </c>
       <c r="C71">
-        <v>-0.2883343226191704</v>
+        <v>-0.28501063514349</v>
       </c>
       <c r="D71">
-        <v>0.06049672860371207</v>
+        <v>-0.005369171767498736</v>
       </c>
       <c r="E71">
-        <v>0.006307867342534322</v>
+        <v>0.0009179624791228291</v>
       </c>
       <c r="F71">
-        <v>-0.006577689868126018</v>
+        <v>0.04676030721804212</v>
       </c>
       <c r="G71">
-        <v>0.01342575487735138</v>
+        <v>0.04140315444479676</v>
       </c>
       <c r="H71">
-        <v>0.01326776253941142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.008193987353376011</v>
+      </c>
+      <c r="I71">
+        <v>0.01980824884369898</v>
+      </c>
+      <c r="J71">
+        <v>-0.002388535202321316</v>
+      </c>
+      <c r="K71">
+        <v>0.00963364462098555</v>
+      </c>
+      <c r="L71">
+        <v>0.03217667652623909</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1622570518294084</v>
+        <v>0.1501007339171087</v>
       </c>
       <c r="C72">
-        <v>-0.01495255810745299</v>
+        <v>0.02967666314018175</v>
       </c>
       <c r="D72">
-        <v>-0.2373533801284162</v>
+        <v>0.0910530970519285</v>
       </c>
       <c r="E72">
-        <v>-0.03306263484331434</v>
+        <v>0.02633189580152714</v>
       </c>
       <c r="F72">
-        <v>0.04755159835387877</v>
+        <v>-0.003434595347445142</v>
       </c>
       <c r="G72">
-        <v>-0.06546369218535256</v>
+        <v>0.06939421928112278</v>
       </c>
       <c r="H72">
-        <v>0.07151212617606109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.04111130992949066</v>
+      </c>
+      <c r="I72">
+        <v>-0.03734844285383185</v>
+      </c>
+      <c r="J72">
+        <v>0.1152308701787426</v>
+      </c>
+      <c r="K72">
+        <v>0.1054980869013331</v>
+      </c>
+      <c r="L72">
+        <v>0.002031516386355803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2917652338508556</v>
+        <v>0.2380038039960446</v>
       </c>
       <c r="C73">
-        <v>0.1715342732842551</v>
+        <v>0.1253759693718579</v>
       </c>
       <c r="D73">
-        <v>0.08469036248269593</v>
+        <v>-0.1630536997075969</v>
       </c>
       <c r="E73">
-        <v>-0.08270120760822394</v>
+        <v>0.1123121299539965</v>
       </c>
       <c r="F73">
-        <v>-0.3090080853740539</v>
+        <v>-0.4374214438929571</v>
       </c>
       <c r="G73">
-        <v>0.1292979263725874</v>
+        <v>-0.03669569606261808</v>
       </c>
       <c r="H73">
-        <v>-0.1138677619985796</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2553793872646953</v>
+      </c>
+      <c r="I73">
+        <v>0.1278959688126955</v>
+      </c>
+      <c r="J73">
+        <v>-0.2700198829721385</v>
+      </c>
+      <c r="K73">
+        <v>0.1992743437832304</v>
+      </c>
+      <c r="L73">
+        <v>0.1010264333313867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.09530597505055988</v>
+        <v>0.1058777259338036</v>
       </c>
       <c r="C74">
-        <v>0.03345695104179437</v>
+        <v>0.07089665571347566</v>
       </c>
       <c r="D74">
-        <v>0.006014441845930401</v>
+        <v>-0.009287607501223908</v>
       </c>
       <c r="E74">
-        <v>-0.04869277393513977</v>
+        <v>0.01052552496308468</v>
       </c>
       <c r="F74">
-        <v>0.09066986709505408</v>
+        <v>-0.04617183087684548</v>
       </c>
       <c r="G74">
-        <v>0.04457994834193635</v>
+        <v>0.1245444204615393</v>
       </c>
       <c r="H74">
-        <v>0.06376349055957407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.084560971745703</v>
+      </c>
+      <c r="I74">
+        <v>-0.06611965005314815</v>
+      </c>
+      <c r="J74">
+        <v>0.0146348885764915</v>
+      </c>
+      <c r="K74">
+        <v>0.005817314941921113</v>
+      </c>
+      <c r="L74">
+        <v>0.005077757410184993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09695207183268013</v>
+        <v>0.1007968040358406</v>
       </c>
       <c r="C75">
-        <v>0.01990530364195769</v>
+        <v>0.05202224921564354</v>
       </c>
       <c r="D75">
-        <v>-0.004795920268172831</v>
+        <v>-0.004761511817812228</v>
       </c>
       <c r="E75">
-        <v>-0.05234785521516174</v>
+        <v>0.007312189608761062</v>
       </c>
       <c r="F75">
-        <v>0.1143794852456949</v>
+        <v>-0.03257522192156288</v>
       </c>
       <c r="G75">
-        <v>0.04869281452267542</v>
+        <v>0.04578884467874904</v>
       </c>
       <c r="H75">
-        <v>0.02418820208684018</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1165174170553451</v>
+      </c>
+      <c r="I75">
+        <v>-0.0774409651891218</v>
+      </c>
+      <c r="J75">
+        <v>0.03666730978501661</v>
+      </c>
+      <c r="K75">
+        <v>0.01233008024209004</v>
+      </c>
+      <c r="L75">
+        <v>-0.009807988175106624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1345158679701574</v>
+        <v>0.07128085897157319</v>
       </c>
       <c r="C76">
-        <v>0.0418444278208458</v>
+        <v>0.04291796238699579</v>
       </c>
       <c r="D76">
-        <v>0.01615045776885425</v>
+        <v>-0.03369203176089456</v>
       </c>
       <c r="E76">
-        <v>-0.05960409653740227</v>
+        <v>0.0002418267341084389</v>
       </c>
       <c r="F76">
-        <v>0.2219463092628771</v>
+        <v>-0.06783032118323243</v>
       </c>
       <c r="G76">
-        <v>0.08104635585651704</v>
+        <v>0.05673621654487687</v>
       </c>
       <c r="H76">
-        <v>0.0451360305538847</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1518856830762366</v>
+      </c>
+      <c r="I76">
+        <v>-0.09409277051263447</v>
+      </c>
+      <c r="J76">
+        <v>-0.01958388303514663</v>
+      </c>
+      <c r="K76">
+        <v>-0.04652949213721211</v>
+      </c>
+      <c r="L76">
+        <v>-0.00369575163145722</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07655903526127433</v>
+        <v>0.07266486597671826</v>
       </c>
       <c r="C77">
-        <v>0.02746228280161327</v>
+        <v>0.03714786801877318</v>
       </c>
       <c r="D77">
-        <v>0.02966163616803588</v>
+        <v>-0.03639029779818469</v>
       </c>
       <c r="E77">
-        <v>0.1282742693604364</v>
+        <v>0.003265725032997016</v>
       </c>
       <c r="F77">
-        <v>-0.1606420182156148</v>
+        <v>0.273512788659133</v>
       </c>
       <c r="G77">
-        <v>-0.6136850668550478</v>
+        <v>-0.03863306263210808</v>
       </c>
       <c r="H77">
-        <v>-0.2408247893734635</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.05824218127079445</v>
+      </c>
+      <c r="I77">
+        <v>0.2283077561388376</v>
+      </c>
+      <c r="J77">
+        <v>0.03545182298986769</v>
+      </c>
+      <c r="K77">
+        <v>0.4719058423665452</v>
+      </c>
+      <c r="L77">
+        <v>-0.5224541879783314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.187524125320163</v>
+        <v>0.1541149588702373</v>
       </c>
       <c r="C78">
-        <v>0.07851621469735365</v>
+        <v>0.1162014772477088</v>
       </c>
       <c r="D78">
-        <v>0.03964292098206135</v>
+        <v>0.04404148525221985</v>
       </c>
       <c r="E78">
-        <v>0.2158830437288227</v>
+        <v>-0.1832702581207072</v>
       </c>
       <c r="F78">
-        <v>0.06000293749427264</v>
+        <v>0.1876696592074331</v>
       </c>
       <c r="G78">
-        <v>-0.08152148214294586</v>
+        <v>-0.7146964321720531</v>
       </c>
       <c r="H78">
-        <v>-0.06351452980741727</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4402959622438499</v>
+      </c>
+      <c r="I78">
+        <v>-0.06815668763295547</v>
+      </c>
+      <c r="J78">
+        <v>-0.221274388681848</v>
+      </c>
+      <c r="K78">
+        <v>0.1404027335346421</v>
+      </c>
+      <c r="L78">
+        <v>0.1378195126590493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1346175863651434</v>
+        <v>0.1350583154029143</v>
       </c>
       <c r="C79">
-        <v>0.02729087929206425</v>
+        <v>0.06272750785704417</v>
       </c>
       <c r="D79">
-        <v>-0.0002009504510142652</v>
+        <v>-0.02424040732436996</v>
       </c>
       <c r="E79">
-        <v>-0.07115652336798857</v>
+        <v>-0.004387182516189577</v>
       </c>
       <c r="F79">
-        <v>0.1606175509381106</v>
+        <v>-0.006818205699893783</v>
       </c>
       <c r="G79">
-        <v>0.01319436597851595</v>
+        <v>0.1163397530987903</v>
       </c>
       <c r="H79">
-        <v>0.06832334979476294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1150680216896518</v>
+      </c>
+      <c r="I79">
+        <v>-0.1163302573243099</v>
+      </c>
+      <c r="J79">
+        <v>0.06522089246384022</v>
+      </c>
+      <c r="K79">
+        <v>0.01310175148841938</v>
+      </c>
+      <c r="L79">
+        <v>-0.006183567426738657</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.04115320590013104</v>
+        <v>0.06175481604398784</v>
       </c>
       <c r="C80">
-        <v>0.02127685298948586</v>
+        <v>0.03477311449964044</v>
       </c>
       <c r="D80">
-        <v>0.01639142143643282</v>
+        <v>-0.02740434816019807</v>
       </c>
       <c r="E80">
-        <v>-0.03139775454003388</v>
+        <v>0.06325445973510474</v>
       </c>
       <c r="F80">
-        <v>-0.02428420350090163</v>
+        <v>0.03417679012506322</v>
       </c>
       <c r="G80">
-        <v>-0.002846249687788942</v>
+        <v>0.002069577472128811</v>
       </c>
       <c r="H80">
-        <v>0.05776947616852786</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.05282639047404203</v>
+      </c>
+      <c r="I80">
+        <v>0.10044290182964</v>
+      </c>
+      <c r="J80">
+        <v>0.02514606959142535</v>
+      </c>
+      <c r="K80">
+        <v>-0.1771613943939116</v>
+      </c>
+      <c r="L80">
+        <v>0.06832603580480777</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1055340440749734</v>
+        <v>0.1235047839661653</v>
       </c>
       <c r="C81">
-        <v>0.02467166816837545</v>
+        <v>0.06142964119579365</v>
       </c>
       <c r="D81">
-        <v>0.01311090591115827</v>
+        <v>-0.02636570033599697</v>
       </c>
       <c r="E81">
-        <v>-0.07824356751203135</v>
+        <v>-0.002988612611512533</v>
       </c>
       <c r="F81">
-        <v>0.1171003750215556</v>
+        <v>0.004092187012404915</v>
       </c>
       <c r="G81">
-        <v>0.02216726135334758</v>
+        <v>0.07526835431812229</v>
       </c>
       <c r="H81">
-        <v>-0.02771866724442337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.07557279563438435</v>
+      </c>
+      <c r="I81">
+        <v>-0.1043491293994472</v>
+      </c>
+      <c r="J81">
+        <v>0.03304788151425871</v>
+      </c>
+      <c r="K81">
+        <v>0.004980576649799117</v>
+      </c>
+      <c r="L81">
+        <v>-0.01126296888373741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1134670013352416</v>
+        <v>0.1303918493953002</v>
       </c>
       <c r="C82">
-        <v>0.02796871436858044</v>
+        <v>0.04287001467009607</v>
       </c>
       <c r="D82">
-        <v>0.06532249261447222</v>
+        <v>-0.04350899261959048</v>
       </c>
       <c r="E82">
-        <v>-0.1178879526882759</v>
+        <v>0.01747734169052162</v>
       </c>
       <c r="F82">
-        <v>0.2188986392241065</v>
+        <v>-0.04173051614808367</v>
       </c>
       <c r="G82">
-        <v>0.007194028089789408</v>
+        <v>0.1650273064044791</v>
       </c>
       <c r="H82">
-        <v>0.08318539004523411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1508143270725184</v>
+      </c>
+      <c r="I82">
+        <v>-0.1773448281876383</v>
+      </c>
+      <c r="J82">
+        <v>0.02241493525909754</v>
+      </c>
+      <c r="K82">
+        <v>-0.06740069068513579</v>
+      </c>
+      <c r="L82">
+        <v>-0.06399564169540523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.09437075745857781</v>
+        <v>0.08806170419149881</v>
       </c>
       <c r="C83">
-        <v>0.06890497863404972</v>
+        <v>0.1118606027228034</v>
       </c>
       <c r="D83">
-        <v>0.05578995446183149</v>
+        <v>-0.02242779178635326</v>
       </c>
       <c r="E83">
-        <v>0.00663316408095428</v>
+        <v>0.01071107688812831</v>
       </c>
       <c r="F83">
-        <v>-0.07811403815245964</v>
+        <v>0.07966443464229456</v>
       </c>
       <c r="G83">
-        <v>-0.03260303240027993</v>
+        <v>0.02960844106211809</v>
       </c>
       <c r="H83">
-        <v>0.03338192346463249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.06021163968925048</v>
+      </c>
+      <c r="I83">
+        <v>0.161755926039708</v>
+      </c>
+      <c r="J83">
+        <v>-0.03305645112070342</v>
+      </c>
+      <c r="K83">
+        <v>-0.1382461890503858</v>
+      </c>
+      <c r="L83">
+        <v>-0.1031680313261882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05986973032211836</v>
+        <v>0.05706323749020874</v>
       </c>
       <c r="C84">
-        <v>0.04589164407647055</v>
+        <v>-0.02925576476237077</v>
       </c>
       <c r="D84">
-        <v>-0.04897471086872048</v>
+        <v>-0.008204359941948885</v>
       </c>
       <c r="E84">
-        <v>0.006606860383357956</v>
+        <v>0.01289867786621728</v>
       </c>
       <c r="F84">
-        <v>0.05286389506904299</v>
+        <v>0.007246344278318894</v>
       </c>
       <c r="G84">
-        <v>0.129282080037662</v>
+        <v>-0.1797212306555076</v>
       </c>
       <c r="H84">
-        <v>0.02535926577728304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.215043775389635</v>
+      </c>
+      <c r="I84">
+        <v>-0.2243738511336018</v>
+      </c>
+      <c r="J84">
+        <v>-0.1372289798255888</v>
+      </c>
+      <c r="K84">
+        <v>-0.1912261061814127</v>
+      </c>
+      <c r="L84">
+        <v>0.0931115856257092</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.09939847947089275</v>
+        <v>0.1139061156507741</v>
       </c>
       <c r="C85">
-        <v>0.03382783999076759</v>
+        <v>0.04861800560830139</v>
       </c>
       <c r="D85">
-        <v>0.0248616491253326</v>
+        <v>-0.04897189021898479</v>
       </c>
       <c r="E85">
-        <v>-0.0649129856140986</v>
+        <v>-0.0009881501955921153</v>
       </c>
       <c r="F85">
-        <v>0.1805521898025418</v>
+        <v>-0.0005868495662829268</v>
       </c>
       <c r="G85">
-        <v>-0.01115345545916568</v>
+        <v>0.1041612542175402</v>
       </c>
       <c r="H85">
-        <v>0.1008268147354</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1161802331050902</v>
+      </c>
+      <c r="I85">
+        <v>-0.1183199529395497</v>
+      </c>
+      <c r="J85">
+        <v>0.06329368569228166</v>
+      </c>
+      <c r="K85">
+        <v>0.0385251639096347</v>
+      </c>
+      <c r="L85">
+        <v>-0.009499202063752873</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06044658001878377</v>
+        <v>0.07540779092732135</v>
       </c>
       <c r="C86">
-        <v>0.0384093461182244</v>
+        <v>0.02216976311688604</v>
       </c>
       <c r="D86">
-        <v>0.03852120596944929</v>
+        <v>-0.1036521686303542</v>
       </c>
       <c r="E86">
-        <v>0.04204001631818236</v>
+        <v>-0.03617704723272963</v>
       </c>
       <c r="F86">
-        <v>-0.02849856710145402</v>
+        <v>0.04774055744846054</v>
       </c>
       <c r="G86">
-        <v>-0.04447457169539475</v>
+        <v>-0.293213969238262</v>
       </c>
       <c r="H86">
-        <v>0.08123818148353204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4463077764731274</v>
+      </c>
+      <c r="I86">
+        <v>-0.5426318507203679</v>
+      </c>
+      <c r="J86">
+        <v>0.3941866383645077</v>
+      </c>
+      <c r="K86">
+        <v>-0.02202213927587329</v>
+      </c>
+      <c r="L86">
+        <v>-0.05179360580363931</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.09391731217673355</v>
+        <v>0.1127657673568118</v>
       </c>
       <c r="C87">
-        <v>0.04490741114334476</v>
+        <v>0.09921579935620223</v>
       </c>
       <c r="D87">
-        <v>0.01091957269877934</v>
+        <v>-0.03329642703256243</v>
       </c>
       <c r="E87">
-        <v>0.06366963369751402</v>
+        <v>-0.0289961690888484</v>
       </c>
       <c r="F87">
-        <v>0.003013650514946441</v>
+        <v>0.1257357382421301</v>
       </c>
       <c r="G87">
-        <v>-0.132586723518257</v>
+        <v>-0.01977505977293024</v>
       </c>
       <c r="H87">
-        <v>0.03386683661903334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.07812341725290198</v>
+      </c>
+      <c r="I87">
+        <v>0.08234446899774356</v>
+      </c>
+      <c r="J87">
+        <v>0.1129970119335714</v>
+      </c>
+      <c r="K87">
+        <v>0.04025340496430738</v>
+      </c>
+      <c r="L87">
+        <v>-0.2837002952304643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06242891908735603</v>
+        <v>0.05636969106160308</v>
       </c>
       <c r="C88">
-        <v>0.03325737307277934</v>
+        <v>0.05041933676335722</v>
       </c>
       <c r="D88">
-        <v>0.01945578069636183</v>
+        <v>-0.03075183352060229</v>
       </c>
       <c r="E88">
-        <v>0.006209352914823101</v>
+        <v>0.02642989313690716</v>
       </c>
       <c r="F88">
-        <v>-0.009062800778088223</v>
+        <v>0.03155641612362763</v>
       </c>
       <c r="G88">
-        <v>-0.04393617879013303</v>
+        <v>0.04243365292379605</v>
       </c>
       <c r="H88">
-        <v>0.009265312758989903</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.01207745585649789</v>
+      </c>
+      <c r="I88">
+        <v>0.0248556927608038</v>
+      </c>
+      <c r="J88">
+        <v>-0.0351535409896505</v>
+      </c>
+      <c r="K88">
+        <v>-0.04897030689746127</v>
+      </c>
+      <c r="L88">
+        <v>0.05113855615702284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1262221017053362</v>
+        <v>0.1918531435132606</v>
       </c>
       <c r="C89">
-        <v>-0.3508403248258121</v>
+        <v>-0.3666378159769528</v>
       </c>
       <c r="D89">
-        <v>0.1021960946914819</v>
+        <v>-0.02189519705156441</v>
       </c>
       <c r="E89">
-        <v>0.08235951569375907</v>
+        <v>-0.0532388293655776</v>
       </c>
       <c r="F89">
-        <v>-0.05087834149674676</v>
+        <v>0.0252641772656668</v>
       </c>
       <c r="G89">
-        <v>-0.02160436641172722</v>
+        <v>-0.03632370393243185</v>
       </c>
       <c r="H89">
-        <v>0.0300230025430086</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01913523241145979</v>
+      </c>
+      <c r="I89">
+        <v>0.06700303107173362</v>
+      </c>
+      <c r="J89">
+        <v>-0.04306806133805843</v>
+      </c>
+      <c r="K89">
+        <v>-0.0560757510732366</v>
+      </c>
+      <c r="L89">
+        <v>-0.01217069231644103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.09558011976328276</v>
+        <v>0.1461868799791061</v>
       </c>
       <c r="C90">
-        <v>-0.2811301519708539</v>
+        <v>-0.272513786371078</v>
       </c>
       <c r="D90">
-        <v>0.0426321325149898</v>
+        <v>-0.004743619486423772</v>
       </c>
       <c r="E90">
-        <v>0.0587224067441939</v>
+        <v>-0.002050919258616574</v>
       </c>
       <c r="F90">
-        <v>-0.04361970520546531</v>
+        <v>0.04103576712108806</v>
       </c>
       <c r="G90">
-        <v>-0.08724254849317133</v>
+        <v>0.02018765341895034</v>
       </c>
       <c r="H90">
-        <v>-0.005940245092938589</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06400051660044596</v>
+      </c>
+      <c r="I90">
+        <v>0.0189212983062687</v>
+      </c>
+      <c r="J90">
+        <v>-0.03425949042279922</v>
+      </c>
+      <c r="K90">
+        <v>0.03180656652773688</v>
+      </c>
+      <c r="L90">
+        <v>0.02062659517287735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08093925552271507</v>
+        <v>0.07933371547966507</v>
       </c>
       <c r="C91">
-        <v>0.02833676098858718</v>
+        <v>0.0447336254052023</v>
       </c>
       <c r="D91">
-        <v>0.01121106348891769</v>
+        <v>-0.02981783781072247</v>
       </c>
       <c r="E91">
-        <v>-0.02218701557309829</v>
+        <v>-0.006801480455854745</v>
       </c>
       <c r="F91">
-        <v>0.07387766029275737</v>
+        <v>-0.02465706487212725</v>
       </c>
       <c r="G91">
-        <v>0.06418471484355906</v>
+        <v>0.0613132395811385</v>
       </c>
       <c r="H91">
-        <v>0.0006145686042893913</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06839361107557332</v>
+      </c>
+      <c r="I91">
+        <v>-0.06851024363702021</v>
+      </c>
+      <c r="J91">
+        <v>0.01273673955233866</v>
+      </c>
+      <c r="K91">
+        <v>-0.003626759251684088</v>
+      </c>
+      <c r="L91">
+        <v>0.006402822864315704</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.1021828917166686</v>
+        <v>0.1645118895438643</v>
       </c>
       <c r="C92">
-        <v>-0.3258141919257259</v>
+        <v>-0.3216014812443237</v>
       </c>
       <c r="D92">
-        <v>0.08009440589524604</v>
+        <v>-0.0019964718765633</v>
       </c>
       <c r="E92">
-        <v>0.05275408121545972</v>
+        <v>-0.04620169897146064</v>
       </c>
       <c r="F92">
-        <v>0.000625148324320362</v>
+        <v>0.05089385794697353</v>
       </c>
       <c r="G92">
-        <v>0.09885983809242294</v>
+        <v>0.01455812895028963</v>
       </c>
       <c r="H92">
-        <v>0.02125836461968593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.04311004959870273</v>
+      </c>
+      <c r="I92">
+        <v>-0.004589423183059307</v>
+      </c>
+      <c r="J92">
+        <v>-0.04473151364085747</v>
+      </c>
+      <c r="K92">
+        <v>-0.04259341766950669</v>
+      </c>
+      <c r="L92">
+        <v>0.04519197949007526</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.1099282674982381</v>
+        <v>0.1515231990433253</v>
       </c>
       <c r="C93">
-        <v>-0.2794938381511052</v>
+        <v>-0.3046401067207078</v>
       </c>
       <c r="D93">
-        <v>0.0486304061142815</v>
+        <v>-0.01655233072968364</v>
       </c>
       <c r="E93">
-        <v>0.03096904041993527</v>
+        <v>0.02270926851434569</v>
       </c>
       <c r="F93">
-        <v>-0.01427409281586486</v>
+        <v>0.01653746268303858</v>
       </c>
       <c r="G93">
-        <v>-0.004246900470674921</v>
+        <v>0.01678998976031506</v>
       </c>
       <c r="H93">
-        <v>-0.01368960204057938</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.05213638539362773</v>
+      </c>
+      <c r="I93">
+        <v>-0.007609235180241155</v>
+      </c>
+      <c r="J93">
+        <v>0.03149265644824801</v>
+      </c>
+      <c r="K93">
+        <v>-0.01631965932132607</v>
+      </c>
+      <c r="L93">
+        <v>0.00514996135076405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09056306559827147</v>
+        <v>0.1167233852264353</v>
       </c>
       <c r="C94">
-        <v>0.04667637843268161</v>
+        <v>0.0637258879363901</v>
       </c>
       <c r="D94">
-        <v>-0.001286579294739446</v>
+        <v>-0.02265627765035492</v>
       </c>
       <c r="E94">
-        <v>-0.03742313380613622</v>
+        <v>-0.01444836366225699</v>
       </c>
       <c r="F94">
-        <v>0.1261421201267736</v>
+        <v>-0.03833542282894718</v>
       </c>
       <c r="G94">
-        <v>0.05473850800836371</v>
+        <v>0.08666725954425941</v>
       </c>
       <c r="H94">
-        <v>0.06140554986077179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.09059489530256383</v>
+      </c>
+      <c r="I94">
+        <v>-0.08245330999041194</v>
+      </c>
+      <c r="J94">
+        <v>0.003781846441692635</v>
+      </c>
+      <c r="K94">
+        <v>0.002315219256852876</v>
+      </c>
+      <c r="L94">
+        <v>0.04299987704165282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1279178101989483</v>
+        <v>0.1192384411590892</v>
       </c>
       <c r="C95">
-        <v>0.07503184231311037</v>
+        <v>0.07100361606887866</v>
       </c>
       <c r="D95">
-        <v>0.06740757044062679</v>
+        <v>-0.04730770953659402</v>
       </c>
       <c r="E95">
-        <v>0.05545877866360141</v>
+        <v>-0.02832349845221552</v>
       </c>
       <c r="F95">
-        <v>-0.05421627365368286</v>
+        <v>0.06956102036194728</v>
       </c>
       <c r="G95">
-        <v>-0.06131012493274748</v>
+        <v>-0.1389545251961347</v>
       </c>
       <c r="H95">
-        <v>0.1091019373198026</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1777905927780433</v>
+      </c>
+      <c r="I95">
+        <v>0.04212270112792595</v>
+      </c>
+      <c r="J95">
+        <v>0.1066535412085345</v>
+      </c>
+      <c r="K95">
+        <v>-0.1010835556553258</v>
+      </c>
+      <c r="L95">
+        <v>-0.01465443584764991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.003136457567617186</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.006677547205012014</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001572210525933261</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-8.985875276814487e-06</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.005835011448594715</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.01794319434805085</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.01342084372453647</v>
+      </c>
+      <c r="I96">
+        <v>0.01005570725841261</v>
+      </c>
+      <c r="J96">
+        <v>-0.00232100767347998</v>
+      </c>
+      <c r="K96">
+        <v>0.0104669696146521</v>
+      </c>
+      <c r="L96">
+        <v>-0.006891411567193874</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2189457780979791</v>
+        <v>0.1925263518633976</v>
       </c>
       <c r="C97">
-        <v>-0.1278519359745437</v>
+        <v>0.06893239274829442</v>
       </c>
       <c r="D97">
-        <v>-0.9032683198471572</v>
+        <v>0.9335596944305469</v>
       </c>
       <c r="E97">
-        <v>-0.01955300400148669</v>
+        <v>0.151509532086288</v>
       </c>
       <c r="F97">
-        <v>-0.1050781691399172</v>
+        <v>-0.0785745835801956</v>
       </c>
       <c r="G97">
-        <v>0.003755840526880172</v>
+        <v>-0.02017884204163927</v>
       </c>
       <c r="H97">
-        <v>-0.03701224312673745</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.09730200351824375</v>
+      </c>
+      <c r="I97">
+        <v>-0.05116614000439487</v>
+      </c>
+      <c r="J97">
+        <v>0.007087885509478388</v>
+      </c>
+      <c r="K97">
+        <v>0.009385360904209638</v>
+      </c>
+      <c r="L97">
+        <v>-0.05072527281690476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3083049057148545</v>
+        <v>0.2531411023043964</v>
       </c>
       <c r="C98">
-        <v>0.09371832252670897</v>
+        <v>0.09409852859641066</v>
       </c>
       <c r="D98">
-        <v>0.1029953277115513</v>
+        <v>-0.044199730129842</v>
       </c>
       <c r="E98">
-        <v>-0.1669930511765518</v>
+        <v>-0.01409777739252543</v>
       </c>
       <c r="F98">
-        <v>-0.2715051372422332</v>
+        <v>-0.3929125202183407</v>
       </c>
       <c r="G98">
-        <v>0.3407634181393559</v>
+        <v>-0.2121391226158188</v>
       </c>
       <c r="H98">
-        <v>-0.359391133511112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.0517185561605412</v>
+      </c>
+      <c r="I98">
+        <v>0.2200683933687963</v>
+      </c>
+      <c r="J98">
+        <v>-0.06869808943829278</v>
+      </c>
+      <c r="K98">
+        <v>-0.4146296703827962</v>
+      </c>
+      <c r="L98">
+        <v>-0.3408493099895606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.07861646860208532</v>
+        <v>0.06643455347327684</v>
       </c>
       <c r="C99">
-        <v>0.044544253439214</v>
+        <v>0.04152395659009114</v>
       </c>
       <c r="D99">
-        <v>0.01978206164598872</v>
+        <v>-0.02694200188233436</v>
       </c>
       <c r="E99">
-        <v>0.008435153988946002</v>
+        <v>-0.01258647254069774</v>
       </c>
       <c r="F99">
-        <v>0.02588932302072281</v>
+        <v>-0.01012788359376198</v>
       </c>
       <c r="G99">
-        <v>-0.03335018221967306</v>
+        <v>0.009654489225263707</v>
       </c>
       <c r="H99">
-        <v>0.001582101736852465</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02360830976913616</v>
+      </c>
+      <c r="I99">
+        <v>0.002274846270391317</v>
+      </c>
+      <c r="J99">
+        <v>-0.04496247518406723</v>
+      </c>
+      <c r="K99">
+        <v>0.01593975577158123</v>
+      </c>
+      <c r="L99">
+        <v>-0.004445520355771662</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.0005565465217169926</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.005006763751828253</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.06671209172841483</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.01947370153573314</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03020834447872056</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.009817629823526066</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.0006319151293876563</v>
+      </c>
+      <c r="I100">
+        <v>0.06119065331930518</v>
+      </c>
+      <c r="J100">
+        <v>0.004756432940499229</v>
+      </c>
+      <c r="K100">
+        <v>-0.06674883379264056</v>
+      </c>
+      <c r="L100">
+        <v>-0.02084220135470075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05226527009284995</v>
+        <v>0.03835662650847409</v>
       </c>
       <c r="C101">
-        <v>0.002113928201289997</v>
+        <v>0.02208757830691678</v>
       </c>
       <c r="D101">
-        <v>0.006284047656249635</v>
+        <v>-0.02029552734114323</v>
       </c>
       <c r="E101">
-        <v>0.03661548363370962</v>
+        <v>0.002016123907253941</v>
       </c>
       <c r="F101">
-        <v>0.02630679833481131</v>
+        <v>0.06091335286743366</v>
       </c>
       <c r="G101">
-        <v>-0.002889239450699703</v>
+        <v>0.02771793066971458</v>
       </c>
       <c r="H101">
-        <v>0.0328775184376154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01274670841203101</v>
+      </c>
+      <c r="I101">
+        <v>0.0128898213557807</v>
+      </c>
+      <c r="J101">
+        <v>0.02790235136158827</v>
+      </c>
+      <c r="K101">
+        <v>-0.1017064559927383</v>
+      </c>
+      <c r="L101">
+        <v>0.01065887054103827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4579,22 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4617,22 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4653,18 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
